--- a/admin/STUDIO_BUSINESS_REPORT.xlsx
+++ b/admin/STUDIO_BUSINESS_REPORT.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>SUMMARY OF STUDIO BUSINESS REPORT</t>
   </si>
   <si>
-    <t>Dance Enterprises, Inc. DBA Arthur Murray Thousand Oaks</t>
-  </si>
-  <si>
-    <t>-12)</t>
-  </si>
-  <si>
-    <t>Week # 50</t>
+    <t>Robert's Dance Academy</t>
+  </si>
+  <si>
+    <t>02/05/2023 - 02/11/2023</t>
+  </si>
+  <si>
+    <t>Week # 6</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -47,19 +47,13 @@
     <t>Week</t>
   </si>
   <si>
-    <t>24,424.30</t>
-  </si>
-  <si>
-    <t>10,069.19</t>
-  </si>
-  <si>
-    <t>34,493.49</t>
+    <t>$0.00</t>
   </si>
   <si>
     <t>Week Refunds</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.00</t>
+    <t>-</t>
   </si>
   <si>
     <t>Transfer out</t>
@@ -68,25 +62,25 @@
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>464,513.71</t>
-  </si>
-  <si>
-    <t>215,303.99</t>
-  </si>
-  <si>
-    <t>679,817.70</t>
+    <t>$67,369.31</t>
+  </si>
+  <si>
+    <t>$21,427.50</t>
+  </si>
+  <si>
+    <t>$88,796.81</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>418,376.26</t>
-  </si>
-  <si>
-    <t>251,957.23</t>
-  </si>
-  <si>
-    <t>670,333.49</t>
+    <t>$25,714.56</t>
+  </si>
+  <si>
+    <t>$36,620.00</t>
+  </si>
+  <si>
+    <t>$62,334.56</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -116,7 +110,7 @@
     <t># in class [incl.core]</t>
   </si>
   <si>
-    <t>30 [30]</t>
+    <t>0 [0]</t>
   </si>
   <si>
     <t>Department</t>
@@ -125,19 +119,13 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>287 [287]</t>
-  </si>
-  <si>
-    <t>25 Intv(front)</t>
+    <t>41Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>147 [147]</t>
-  </si>
-  <si>
-    <t>31 Ren(back)</t>
+    <t>23Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -155,40 +143,46 @@
     <t>Renewal</t>
   </si>
   <si>
-    <t>T : 3</t>
-  </si>
-  <si>
-    <t>S : 3</t>
+    <t>T : 6</t>
+  </si>
+  <si>
+    <t>S : 6</t>
   </si>
   <si>
     <t>T : 5</t>
   </si>
   <si>
-    <t>S : 4</t>
+    <t>S : 0</t>
+  </si>
+  <si>
+    <t>T : 4</t>
   </si>
   <si>
     <t>T : 0</t>
   </si>
   <si>
-    <t>S : 0</t>
-  </si>
-  <si>
-    <t>T : 8</t>
-  </si>
-  <si>
-    <t>S : 7</t>
-  </si>
-  <si>
-    <t>Units: 7.00</t>
-  </si>
-  <si>
-    <t>Units: 16.00</t>
+    <t>T : 15</t>
   </si>
   <si>
     <t>Units: 0.00</t>
   </si>
   <si>
-    <t>Units: 23.00</t>
+    <t>Units: 15.00</t>
+  </si>
+  <si>
+    <t>Units: 93.00</t>
+  </si>
+  <si>
+    <t>Units: 108.00</t>
+  </si>
+  <si>
+    <t>$2,589.30</t>
+  </si>
+  <si>
+    <t>$12,114.90</t>
+  </si>
+  <si>
+    <t>$14,704.20</t>
   </si>
   <si>
     <t>Adjust</t>
@@ -200,9 +194,63 @@
     <t>Net YTD</t>
   </si>
   <si>
+    <t>T : 45</t>
+  </si>
+  <si>
+    <t>S : 45</t>
+  </si>
+  <si>
+    <t>T : 21</t>
+  </si>
+  <si>
+    <t>T : 10</t>
+  </si>
+  <si>
+    <t>T : 2</t>
+  </si>
+  <si>
+    <t>T : 78</t>
+  </si>
+  <si>
+    <t>Units: 76.00</t>
+  </si>
+  <si>
+    <t>Units: 263.00</t>
+  </si>
+  <si>
+    <t>Units: 65.00</t>
+  </si>
+  <si>
+    <t>Units: 404.00</t>
+  </si>
+  <si>
+    <t>$12,360.60</t>
+  </si>
+  <si>
+    <t>$36,522.80</t>
+  </si>
+  <si>
+    <t>$9,875.25</t>
+  </si>
+  <si>
+    <t>$58,758.65</t>
+  </si>
+  <si>
     <t>Prev</t>
   </si>
   <si>
+    <t>$3,300.00</t>
+  </si>
+  <si>
+    <t>$29,700.00</t>
+  </si>
+  <si>
+    <t>$10,899.00</t>
+  </si>
+  <si>
+    <t>$43,899.00</t>
+  </si>
+  <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
   </si>
   <si>
@@ -222,6 +270,15 @@
   </si>
   <si>
     <t>Prev.</t>
+  </si>
+  <si>
+    <t>$0.000</t>
+  </si>
+  <si>
+    <t>$24,627.50</t>
+  </si>
+  <si>
+    <t>$34,920.00</t>
   </si>
 </sst>
 </file>
@@ -291,18 +348,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -648,623 +702,623 @@
       </c>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="20">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="20">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" customHeight="1" ht="20">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" customHeight="1" ht="20">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" customHeight="1" ht="20">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" customHeight="1" ht="20">
-      <c r="A7" s="6" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" customHeight="1" ht="20">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" customHeight="1" ht="20">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" customHeight="1" ht="20">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="12" spans="1:11" customHeight="1" ht="20">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" customHeight="1" ht="35">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" customHeight="1" ht="20">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" customHeight="1" ht="20">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8">
+        <v>123</v>
+      </c>
+      <c r="F15" s="8">
+        <v>201</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" customHeight="1" ht="20">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
         <v>14</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" customHeight="1" ht="20">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" customHeight="1" ht="20">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" customHeight="1" ht="20">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="12" spans="1:11" customHeight="1" ht="20">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" customHeight="1" ht="35">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E16" s="8">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8">
+        <v>198</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" customHeight="1" ht="20">
-      <c r="A14" s="9" t="s">
+      <c r="H16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" customHeight="1" ht="35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" customHeight="1" ht="20">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9">
-        <v>39</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" customHeight="1" ht="20">
-      <c r="A15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="9">
-        <v>27</v>
-      </c>
-      <c r="C15" s="9">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" customHeight="1" ht="20">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="9">
-        <v>197.5</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" customHeight="1" ht="20">
-      <c r="A16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="9">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9">
-        <v>17</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" customHeight="1" ht="20">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9">
-        <v>205</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" customHeight="1" ht="35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" customHeight="1" ht="20">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" customHeight="1" ht="20">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" customHeight="1" ht="20">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="F24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" customHeight="1" ht="20">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" customHeight="1" ht="20">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" customHeight="1" ht="20">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7">
-        <v>805</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7">
-        <v>2872.8</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="7">
-        <v>3677.8</v>
-      </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" customHeight="1" ht="20">
-      <c r="A23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" customHeight="1" ht="20">
-      <c r="A24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" customHeight="1" ht="20">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7">
-        <v>805</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7">
-        <v>2872.8</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="7">
-        <v>3677.8</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" customHeight="1" ht="20">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
-      <c r="A32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7">
-        <v>32470</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="A32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
-      <c r="A33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="7">
-        <v>35110</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="A33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
-      <c r="A34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="7">
-        <v>2493</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="A34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/STUDIO_BUSINESS_REPORT.xlsx
+++ b/admin/STUDIO_BUSINESS_REPORT.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>SUMMARY OF STUDIO BUSINESS REPORT</t>
   </si>
   <si>
-    <t>Robert's Dance Academy</t>
-  </si>
-  <si>
-    <t>02/05/2023 - 02/11/2023</t>
-  </si>
-  <si>
-    <t>Week # 6</t>
+    <t>Dance Enterprises, Inc. DBA Arthur Murray Thousand Oaks</t>
+  </si>
+  <si>
+    <t>(12/08/2024 - 12/14/2024)</t>
+  </si>
+  <si>
+    <t>Week # 50</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -47,40 +47,49 @@
     <t>Week</t>
   </si>
   <si>
+    <t>$24,424.30</t>
+  </si>
+  <si>
+    <t>$10,069.19</t>
+  </si>
+  <si>
+    <t>$34,493.49</t>
+  </si>
+  <si>
+    <t>Week Refunds</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Transfer out</t>
+  </si>
+  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>Week Refunds</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Transfer out</t>
-  </si>
-  <si>
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$67,369.31</t>
-  </si>
-  <si>
-    <t>$21,427.50</t>
-  </si>
-  <si>
-    <t>$88,796.81</t>
+    <t>$464,513.71</t>
+  </si>
+  <si>
+    <t>$215,303.99</t>
+  </si>
+  <si>
+    <t>$679,817.70</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$25,714.56</t>
-  </si>
-  <si>
-    <t>$36,620.00</t>
-  </si>
-  <si>
-    <t>$62,334.56</t>
+    <t>$418,376.26</t>
+  </si>
+  <si>
+    <t>$251,957.23</t>
+  </si>
+  <si>
+    <t>$670,333.49</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -110,7 +119,7 @@
     <t># in class [incl.core]</t>
   </si>
   <si>
-    <t>0 [0]</t>
+    <t>61 [61]</t>
   </si>
   <si>
     <t>Department</t>
@@ -119,13 +128,19 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>41Intv(front)</t>
+    <t>2315 [2315]</t>
+  </si>
+  <si>
+    <t>21Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>23Ren(back)</t>
+    <t>999 [999]</t>
+  </si>
+  <si>
+    <t>34Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -143,46 +158,49 @@
     <t>Renewal</t>
   </si>
   <si>
-    <t>T : 6</t>
-  </si>
-  <si>
-    <t>S : 6</t>
-  </si>
-  <si>
-    <t>T : 5</t>
-  </si>
-  <si>
-    <t>S : 0</t>
-  </si>
-  <si>
-    <t>T : 4</t>
-  </si>
-  <si>
-    <t>T : 0</t>
+    <t>T : 1</t>
+  </si>
+  <si>
+    <t>S : 1</t>
   </si>
   <si>
     <t>T : 15</t>
   </si>
   <si>
-    <t>Units: 0.00</t>
-  </si>
-  <si>
-    <t>Units: 15.00</t>
-  </si>
-  <si>
-    <t>Units: 93.00</t>
-  </si>
-  <si>
-    <t>Units: 108.00</t>
-  </si>
-  <si>
-    <t>$2,589.30</t>
-  </si>
-  <si>
-    <t>$12,114.90</t>
-  </si>
-  <si>
-    <t>$14,704.20</t>
+    <t>S : 15</t>
+  </si>
+  <si>
+    <t>T : 18</t>
+  </si>
+  <si>
+    <t>S : 18</t>
+  </si>
+  <si>
+    <t>Units: 2.00</t>
+  </si>
+  <si>
+    <t>Units: 24.00</t>
+  </si>
+  <si>
+    <t>Units: 400.00</t>
+  </si>
+  <si>
+    <t>Units: 428.00</t>
+  </si>
+  <si>
+    <t>$189.00</t>
+  </si>
+  <si>
+    <t>$359.10</t>
+  </si>
+  <si>
+    <t>$4,309.20</t>
+  </si>
+  <si>
+    <t>$59,172.50</t>
+  </si>
+  <si>
+    <t>$64,029.80</t>
   </si>
   <si>
     <t>Adjust</t>
@@ -194,61 +212,82 @@
     <t>Net YTD</t>
   </si>
   <si>
+    <t>T : 191</t>
+  </si>
+  <si>
+    <t>S : 191</t>
+  </si>
+  <si>
+    <t>T : 135</t>
+  </si>
+  <si>
+    <t>S : 54</t>
+  </si>
+  <si>
     <t>T : 45</t>
   </si>
   <si>
-    <t>S : 45</t>
-  </si>
-  <si>
-    <t>T : 21</t>
-  </si>
-  <si>
-    <t>T : 10</t>
-  </si>
-  <si>
-    <t>T : 2</t>
-  </si>
-  <si>
-    <t>T : 78</t>
-  </si>
-  <si>
-    <t>Units: 76.00</t>
-  </si>
-  <si>
-    <t>Units: 263.00</t>
-  </si>
-  <si>
-    <t>Units: 65.00</t>
-  </si>
-  <si>
-    <t>Units: 404.00</t>
-  </si>
-  <si>
-    <t>$12,360.60</t>
-  </si>
-  <si>
-    <t>$36,522.80</t>
-  </si>
-  <si>
-    <t>$9,875.25</t>
-  </si>
-  <si>
-    <t>$58,758.65</t>
+    <t>S : 40</t>
+  </si>
+  <si>
+    <t>T : 57</t>
+  </si>
+  <si>
+    <t>S : 57</t>
+  </si>
+  <si>
+    <t>T : 428</t>
+  </si>
+  <si>
+    <t>S : 342</t>
+  </si>
+  <si>
+    <t>Units: 637.00</t>
+  </si>
+  <si>
+    <t>Units: 371.00</t>
+  </si>
+  <si>
+    <t>Units: 1,267.00</t>
+  </si>
+  <si>
+    <t>Units: 2,194.00</t>
+  </si>
+  <si>
+    <t>Units: 4,469.00</t>
+  </si>
+  <si>
+    <t>$55,289.07</t>
+  </si>
+  <si>
+    <t>$58,036.60</t>
+  </si>
+  <si>
+    <t>$215,943.21</t>
+  </si>
+  <si>
+    <t>$321,760.00</t>
+  </si>
+  <si>
+    <t>$651,028.88</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$3,300.00</t>
-  </si>
-  <si>
-    <t>$29,700.00</t>
-  </si>
-  <si>
-    <t>$10,899.00</t>
-  </si>
-  <si>
-    <t>$43,899.00</t>
+    <t>$57,207.24</t>
+  </si>
+  <si>
+    <t>$49,483.70</t>
+  </si>
+  <si>
+    <t>$184,651.55</t>
+  </si>
+  <si>
+    <t>$227,225.25</t>
+  </si>
+  <si>
+    <t>$518,567.74</t>
   </si>
   <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
@@ -272,13 +311,16 @@
     <t>Prev.</t>
   </si>
   <si>
+    <t>$1,691.69</t>
+  </si>
+  <si>
     <t>$0.000</t>
   </si>
   <si>
-    <t>$24,627.50</t>
-  </si>
-  <si>
-    <t>$34,920.00</t>
+    <t>$225,757.69</t>
+  </si>
+  <si>
+    <t>$310,721.11</t>
   </si>
 </sst>
 </file>
@@ -757,114 +799,114 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -872,23 +914,23 @@
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="35">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -900,25 +942,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="8">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F14" s="8">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -926,28 +966,28 @@
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C15" s="8">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="D15" s="8">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E15" s="8">
-        <v>123</v>
+        <v>715</v>
       </c>
       <c r="F15" s="8">
-        <v>201</v>
+        <v>2204</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -955,28 +995,28 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="C16" s="8">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="D16" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E16" s="8">
-        <v>54</v>
+        <v>811.5</v>
       </c>
       <c r="F16" s="8">
-        <v>198</v>
+        <v>1969.5</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -984,25 +1024,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3" t="s">
@@ -1015,216 +1055,216 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1232,16 +1272,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1251,10 +1291,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1265,57 +1305,57 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/admin/STUDIO_BUSINESS_REPORT.xlsx
+++ b/admin/STUDIO_BUSINESS_REPORT.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>SUMMARY OF STUDIO BUSINESS REPORT</t>
   </si>
   <si>
-    <t>Dance Enterprises, Inc. DBA Arthur Murray Thousand Oaks</t>
-  </si>
-  <si>
-    <t>(12/08/2024 - 12/14/2024)</t>
-  </si>
-  <si>
-    <t>Week # 50</t>
+    <t>Amto.Robert</t>
+  </si>
+  <si>
+    <t>(06/01/2025 - 06/07/2025)</t>
+  </si>
+  <si>
+    <t>Week # 23</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -47,13 +47,10 @@
     <t>Week</t>
   </si>
   <si>
-    <t>$24,424.30</t>
-  </si>
-  <si>
-    <t>$10,069.19</t>
-  </si>
-  <si>
-    <t>$34,493.49</t>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$15,360.00</t>
   </si>
   <si>
     <t>Week Refunds</t>
@@ -65,31 +62,28 @@
     <t>Transfer out</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$464,513.71</t>
-  </si>
-  <si>
-    <t>$215,303.99</t>
-  </si>
-  <si>
-    <t>$679,817.70</t>
+    <t>$92,479.73</t>
+  </si>
+  <si>
+    <t>$108,400.50</t>
+  </si>
+  <si>
+    <t>$200,880.23</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$418,376.26</t>
-  </si>
-  <si>
-    <t>$251,957.23</t>
-  </si>
-  <si>
-    <t>$670,333.49</t>
+    <t>$193,476.01</t>
+  </si>
+  <si>
+    <t>$92,985.00</t>
+  </si>
+  <si>
+    <t>$286,461.01</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -119,7 +113,7 @@
     <t># in class [incl.core]</t>
   </si>
   <si>
-    <t>61 [61]</t>
+    <t>0 [0]</t>
   </si>
   <si>
     <t>Department</t>
@@ -128,19 +122,19 @@
     <t>Y.T.D.</t>
   </si>
   <si>
-    <t>2315 [2315]</t>
-  </si>
-  <si>
-    <t>21Intv(front)</t>
+    <t>550 [550]</t>
+  </si>
+  <si>
+    <t>1Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>999 [999]</t>
-  </si>
-  <si>
-    <t>34Ren(back)</t>
+    <t>824 [824]</t>
+  </si>
+  <si>
+    <t>0Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -158,49 +152,52 @@
     <t>Renewal</t>
   </si>
   <si>
+    <t>T : 2</t>
+  </si>
+  <si>
+    <t>S : 2</t>
+  </si>
+  <si>
     <t>T : 1</t>
   </si>
   <si>
     <t>S : 1</t>
   </si>
   <si>
-    <t>T : 15</t>
-  </si>
-  <si>
-    <t>S : 15</t>
-  </si>
-  <si>
-    <t>T : 18</t>
-  </si>
-  <si>
-    <t>S : 18</t>
-  </si>
-  <si>
-    <t>Units: 2.00</t>
-  </si>
-  <si>
-    <t>Units: 24.00</t>
-  </si>
-  <si>
-    <t>Units: 400.00</t>
-  </si>
-  <si>
-    <t>Units: 428.00</t>
-  </si>
-  <si>
-    <t>$189.00</t>
-  </si>
-  <si>
-    <t>$359.10</t>
-  </si>
-  <si>
-    <t>$4,309.20</t>
-  </si>
-  <si>
-    <t>$59,172.50</t>
-  </si>
-  <si>
-    <t>$64,029.80</t>
+    <t>T : 0</t>
+  </si>
+  <si>
+    <t>S : 0</t>
+  </si>
+  <si>
+    <t>T : 4</t>
+  </si>
+  <si>
+    <t>S : 4</t>
+  </si>
+  <si>
+    <t>Units: 13.00</t>
+  </si>
+  <si>
+    <t>Units: 5.00</t>
+  </si>
+  <si>
+    <t>Units: 0.00</t>
+  </si>
+  <si>
+    <t>Units: 18.00</t>
+  </si>
+  <si>
+    <t>$1,380.00</t>
+  </si>
+  <si>
+    <t>$2,500.00</t>
+  </si>
+  <si>
+    <t>$378.00</t>
+  </si>
+  <si>
+    <t>$4,258.00</t>
   </si>
   <si>
     <t>Adjust</t>
@@ -212,82 +209,82 @@
     <t>Net YTD</t>
   </si>
   <si>
-    <t>T : 191</t>
-  </si>
-  <si>
-    <t>S : 191</t>
-  </si>
-  <si>
-    <t>T : 135</t>
-  </si>
-  <si>
-    <t>S : 54</t>
-  </si>
-  <si>
-    <t>T : 45</t>
-  </si>
-  <si>
-    <t>S : 40</t>
-  </si>
-  <si>
-    <t>T : 57</t>
-  </si>
-  <si>
-    <t>S : 57</t>
-  </si>
-  <si>
-    <t>T : 428</t>
-  </si>
-  <si>
-    <t>S : 342</t>
-  </si>
-  <si>
-    <t>Units: 637.00</t>
-  </si>
-  <si>
-    <t>Units: 371.00</t>
-  </si>
-  <si>
-    <t>Units: 1,267.00</t>
-  </si>
-  <si>
-    <t>Units: 2,194.00</t>
-  </si>
-  <si>
-    <t>Units: 4,469.00</t>
-  </si>
-  <si>
-    <t>$55,289.07</t>
-  </si>
-  <si>
-    <t>$58,036.60</t>
-  </si>
-  <si>
-    <t>$215,943.21</t>
-  </si>
-  <si>
-    <t>$321,760.00</t>
-  </si>
-  <si>
-    <t>$651,028.88</t>
+    <t>T : 39</t>
+  </si>
+  <si>
+    <t>S : 39</t>
+  </si>
+  <si>
+    <t>T : 21</t>
+  </si>
+  <si>
+    <t>S : 13</t>
+  </si>
+  <si>
+    <t>T : 12</t>
+  </si>
+  <si>
+    <t>S : 7</t>
+  </si>
+  <si>
+    <t>T : 14</t>
+  </si>
+  <si>
+    <t>S : 9</t>
+  </si>
+  <si>
+    <t>T : 86</t>
+  </si>
+  <si>
+    <t>S : 68</t>
+  </si>
+  <si>
+    <t>Units: 297.00</t>
+  </si>
+  <si>
+    <t>Units: 56.00</t>
+  </si>
+  <si>
+    <t>Units: 160.00</t>
+  </si>
+  <si>
+    <t>Units: 126.00</t>
+  </si>
+  <si>
+    <t>Units: 639.00</t>
+  </si>
+  <si>
+    <t>$20,000.50</t>
+  </si>
+  <si>
+    <t>$10,120.70</t>
+  </si>
+  <si>
+    <t>$26,109.50</t>
+  </si>
+  <si>
+    <t>$15,776.90</t>
+  </si>
+  <si>
+    <t>$72,007.60</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$57,207.24</t>
-  </si>
-  <si>
-    <t>$49,483.70</t>
-  </si>
-  <si>
-    <t>$184,651.55</t>
-  </si>
-  <si>
-    <t>$227,225.25</t>
-  </si>
-  <si>
-    <t>$518,567.74</t>
+    <t>$26,922.97</t>
+  </si>
+  <si>
+    <t>$19,959.20</t>
+  </si>
+  <si>
+    <t>$81,242.91</t>
+  </si>
+  <si>
+    <t>$102,584.10</t>
+  </si>
+  <si>
+    <t>$230,709.18</t>
   </si>
   <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
@@ -311,16 +308,16 @@
     <t>Prev.</t>
   </si>
   <si>
-    <t>$1,691.69</t>
+    <t>$15,804.00</t>
   </si>
   <si>
     <t>$0.000</t>
   </si>
   <si>
-    <t>$225,757.69</t>
-  </si>
-  <si>
-    <t>$310,721.11</t>
+    <t>$127,237.00</t>
+  </si>
+  <si>
+    <t>$122,524.20</t>
   </si>
 </sst>
 </file>
@@ -804,109 +801,109 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -914,23 +911,23 @@
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="35">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -946,19 +943,15 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>9</v>
-      </c>
-      <c r="F14" s="8">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -966,28 +959,28 @@
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8">
+        <v>80</v>
+      </c>
+      <c r="C15" s="8">
+        <v>33</v>
+      </c>
+      <c r="D15" s="8">
+        <v>33</v>
+      </c>
+      <c r="E15" s="8">
+        <v>148</v>
+      </c>
+      <c r="F15" s="8">
+        <v>443</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="8">
-        <v>225</v>
-      </c>
-      <c r="C15" s="8">
-        <v>201</v>
-      </c>
-      <c r="D15" s="8">
-        <v>170</v>
-      </c>
-      <c r="E15" s="8">
-        <v>715</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2204</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -995,28 +988,28 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8">
+        <v>117</v>
+      </c>
+      <c r="C16" s="8">
+        <v>111</v>
+      </c>
+      <c r="D16" s="8">
+        <v>89</v>
+      </c>
+      <c r="E16" s="8">
+        <v>307</v>
+      </c>
+      <c r="F16" s="8">
+        <v>892.5</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="8">
-        <v>220</v>
-      </c>
-      <c r="C16" s="8">
-        <v>212</v>
-      </c>
-      <c r="D16" s="8">
-        <v>174</v>
-      </c>
-      <c r="E16" s="8">
-        <v>811.5</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1969.5</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1024,25 +1017,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3" t="s">
@@ -1055,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>47</v>
@@ -1067,16 +1060,16 @@
         <v>48</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>51</v>
@@ -1092,11 +1085,11 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
@@ -1119,152 +1112,152 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1272,16 +1265,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1291,10 +1284,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1305,57 +1298,57 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/admin/STUDIO_BUSINESS_REPORT.xlsx
+++ b/admin/STUDIO_BUSINESS_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>SUMMARY OF STUDIO BUSINESS REPORT</t>
   </si>
@@ -23,10 +23,10 @@
     <t>Amto.Robert</t>
   </si>
   <si>
-    <t>(06/01/2025 - 06/07/2025)</t>
-  </si>
-  <si>
-    <t>Week # 23</t>
+    <t>(08/03/2025 - 08/09/2025)</t>
+  </si>
+  <si>
+    <t>Week # 32</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -50,9 +50,6 @@
     <t>$0.00</t>
   </si>
   <si>
-    <t>$15,360.00</t>
-  </si>
-  <si>
     <t>Week Refunds</t>
   </si>
   <si>
@@ -65,25 +62,25 @@
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$92,479.73</t>
+    <t>$95,191.03</t>
   </si>
   <si>
     <t>$108,400.50</t>
   </si>
   <si>
-    <t>$200,880.23</t>
+    <t>$203,591.53</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$193,476.01</t>
-  </si>
-  <si>
-    <t>$92,985.00</t>
-  </si>
-  <si>
-    <t>$286,461.01</t>
+    <t>$282,481.94</t>
+  </si>
+  <si>
+    <t>$138,759.80</t>
+  </si>
+  <si>
+    <t>$421,241.74</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -131,7 +128,7 @@
     <t>PREV</t>
   </si>
   <si>
-    <t>824 [824]</t>
+    <t>1301 [1301]</t>
   </si>
   <si>
     <t>0Ren(back)</t>
@@ -152,73 +149,58 @@
     <t>Renewal</t>
   </si>
   <si>
+    <t>T : 0</t>
+  </si>
+  <si>
+    <t>S : 0</t>
+  </si>
+  <si>
+    <t>T : 1</t>
+  </si>
+  <si>
+    <t>S : 1</t>
+  </si>
+  <si>
     <t>T : 2</t>
   </si>
   <si>
     <t>S : 2</t>
   </si>
   <si>
-    <t>T : 1</t>
-  </si>
-  <si>
-    <t>S : 1</t>
-  </si>
-  <si>
-    <t>T : 0</t>
-  </si>
-  <si>
-    <t>S : 0</t>
-  </si>
-  <si>
-    <t>T : 4</t>
-  </si>
-  <si>
-    <t>S : 4</t>
-  </si>
-  <si>
-    <t>Units: 13.00</t>
-  </si>
-  <si>
-    <t>Units: 5.00</t>
-  </si>
-  <si>
     <t>Units: 0.00</t>
   </si>
   <si>
-    <t>Units: 18.00</t>
+    <t>$1,000.00</t>
+  </si>
+  <si>
+    <t>$380.00</t>
   </si>
   <si>
     <t>$1,380.00</t>
   </si>
   <si>
-    <t>$2,500.00</t>
-  </si>
-  <si>
-    <t>$378.00</t>
-  </si>
-  <si>
-    <t>$4,258.00</t>
-  </si>
-  <si>
     <t>Adjust</t>
   </si>
   <si>
-    <t>0 / 0.00/ $0.00</t>
+    <t>0 / 0.00 / $0.00</t>
+  </si>
+  <si>
+    <t>0/0.00 / $0.00</t>
   </si>
   <si>
     <t>Net YTD</t>
   </si>
   <si>
-    <t>T : 39</t>
-  </si>
-  <si>
-    <t>S : 39</t>
-  </si>
-  <si>
-    <t>T : 21</t>
-  </si>
-  <si>
-    <t>S : 13</t>
+    <t>T : 40</t>
+  </si>
+  <si>
+    <t>S : 40</t>
+  </si>
+  <si>
+    <t>T : 22</t>
+  </si>
+  <si>
+    <t>S : 14</t>
   </si>
   <si>
     <t>T : 12</t>
@@ -227,64 +209,64 @@
     <t>S : 7</t>
   </si>
   <si>
-    <t>T : 14</t>
-  </si>
-  <si>
-    <t>S : 9</t>
-  </si>
-  <si>
-    <t>T : 86</t>
-  </si>
-  <si>
-    <t>S : 68</t>
-  </si>
-  <si>
-    <t>Units: 297.00</t>
-  </si>
-  <si>
-    <t>Units: 56.00</t>
+    <t>T : 16</t>
+  </si>
+  <si>
+    <t>S : 11</t>
+  </si>
+  <si>
+    <t>T : 90</t>
+  </si>
+  <si>
+    <t>S : 72</t>
+  </si>
+  <si>
+    <t>Units: 302.00</t>
+  </si>
+  <si>
+    <t>Units: 61.00</t>
   </si>
   <si>
     <t>Units: 160.00</t>
   </si>
   <si>
-    <t>Units: 126.00</t>
-  </si>
-  <si>
-    <t>Units: 639.00</t>
-  </si>
-  <si>
-    <t>$20,000.50</t>
-  </si>
-  <si>
-    <t>$10,120.70</t>
+    <t>Units: 189.00</t>
+  </si>
+  <si>
+    <t>Units: 712.00</t>
+  </si>
+  <si>
+    <t>$20,500.50</t>
+  </si>
+  <si>
+    <t>$11,120.70</t>
   </si>
   <si>
     <t>$26,109.50</t>
   </si>
   <si>
-    <t>$15,776.90</t>
-  </si>
-  <si>
-    <t>$72,007.60</t>
+    <t>$22,156.90</t>
+  </si>
+  <si>
+    <t>$79,887.60</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$26,922.97</t>
-  </si>
-  <si>
-    <t>$19,959.20</t>
-  </si>
-  <si>
-    <t>$81,242.91</t>
-  </si>
-  <si>
-    <t>$102,584.10</t>
-  </si>
-  <si>
-    <t>$230,709.18</t>
+    <t>$39,302.97</t>
+  </si>
+  <si>
+    <t>$49,008.50</t>
+  </si>
+  <si>
+    <t>$128,984.31</t>
+  </si>
+  <si>
+    <t>$205,924.50</t>
+  </si>
+  <si>
+    <t>$423,220.28</t>
   </si>
   <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
@@ -308,16 +290,13 @@
     <t>Prev.</t>
   </si>
   <si>
-    <t>$15,804.00</t>
-  </si>
-  <si>
     <t>$0.000</t>
   </si>
   <si>
     <t>$127,237.00</t>
   </si>
   <si>
-    <t>$122,524.20</t>
+    <t>$140,053.50</t>
   </si>
 </sst>
 </file>
@@ -796,40 +775,40 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="20">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="20">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -850,60 +829,60 @@
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="20">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="20">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="12" spans="1:11" customHeight="1" ht="20">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -911,23 +890,23 @@
     </row>
     <row r="13" spans="1:11" customHeight="1" ht="35">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -948,10 +927,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -959,7 +938,7 @@
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="20">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8">
         <v>80</v>
@@ -971,16 +950,16 @@
         <v>33</v>
       </c>
       <c r="E15" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F15" s="8">
         <v>443</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -988,28 +967,28 @@
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="20">
       <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8">
+        <v>150</v>
+      </c>
+      <c r="C16" s="8">
+        <v>142</v>
+      </c>
+      <c r="D16" s="8">
+        <v>126</v>
+      </c>
+      <c r="E16" s="8">
+        <v>487</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1313.5</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8">
-        <v>117</v>
-      </c>
-      <c r="C16" s="8">
-        <v>111</v>
-      </c>
-      <c r="D16" s="8">
-        <v>89</v>
-      </c>
-      <c r="E16" s="8">
-        <v>307</v>
-      </c>
-      <c r="F16" s="8">
-        <v>892.5</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1017,25 +996,25 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11" customHeight="1" ht="35">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3" t="s">
@@ -1048,67 +1027,67 @@
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="20">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
@@ -1116,148 +1095,148 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1265,16 +1244,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1284,10 +1263,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1298,7 +1277,7 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1310,45 +1289,45 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="6" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" customHeight="1" ht="20">
       <c r="A33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/admin/STUDIO_BUSINESS_REPORT.xlsx
+++ b/admin/STUDIO_BUSINESS_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>SUMMARY OF STUDIO BUSINESS REPORT</t>
   </si>
@@ -170,6 +170,15 @@
     <t>Units: 0.00</t>
   </si>
   <si>
+    <t>Units: 2.00</t>
+  </si>
+  <si>
+    <t>Units: 3.00</t>
+  </si>
+  <si>
+    <t>Units: 5.00</t>
+  </si>
+  <si>
     <t>$1,000.00</t>
   </si>
   <si>
@@ -197,13 +206,13 @@
     <t>S : 40</t>
   </si>
   <si>
-    <t>T : 22</t>
+    <t>T : 14</t>
   </si>
   <si>
     <t>S : 14</t>
   </si>
   <si>
-    <t>T : 12</t>
+    <t>T : 11</t>
   </si>
   <si>
     <t>S : 7</t>
@@ -215,28 +224,25 @@
     <t>S : 11</t>
   </si>
   <si>
-    <t>T : 90</t>
+    <t>T : 81</t>
   </si>
   <si>
     <t>S : 72</t>
   </si>
   <si>
-    <t>Units: 302.00</t>
-  </si>
-  <si>
-    <t>Units: 61.00</t>
+    <t>Units: 166.00</t>
+  </si>
+  <si>
+    <t>Units: 55.00</t>
   </si>
   <si>
     <t>Units: 160.00</t>
   </si>
   <si>
-    <t>Units: 189.00</t>
-  </si>
-  <si>
-    <t>Units: 712.00</t>
-  </si>
-  <si>
-    <t>$20,500.50</t>
+    <t>Units: 547.00</t>
+  </si>
+  <si>
+    <t>$20,000.50</t>
   </si>
   <si>
     <t>$11,120.70</t>
@@ -245,10 +251,10 @@
     <t>$26,109.50</t>
   </si>
   <si>
-    <t>$22,156.90</t>
-  </si>
-  <si>
-    <t>$79,887.60</t>
+    <t>$20,956.90</t>
+  </si>
+  <si>
+    <t>$78,187.60</t>
   </si>
   <si>
     <t>Prev</t>
@@ -1064,7 +1070,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
@@ -1072,11 +1078,11 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -1087,7 +1093,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
@@ -1095,86 +1101,86 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
@@ -1182,61 +1188,61 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1244,16 +1250,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1263,10 +1269,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1277,7 +1283,7 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1303,31 +1309,31 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/admin/STUDIO_BUSINESS_REPORT.xlsx
+++ b/admin/STUDIO_BUSINESS_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>SUMMARY OF STUDIO BUSINESS REPORT</t>
   </si>
@@ -23,10 +23,10 @@
     <t>Amto.Robert</t>
   </si>
   <si>
-    <t>(08/03/2025 - 08/09/2025)</t>
-  </si>
-  <si>
-    <t>Week # 32</t>
+    <t>(10/19/2025 - 10/25/2025)</t>
+  </si>
+  <si>
+    <t>Week # 43</t>
   </si>
   <si>
     <t>CASH RECEIPTS</t>
@@ -62,25 +62,25 @@
     <t>NET Y.T.D.</t>
   </si>
   <si>
-    <t>$95,191.03</t>
-  </si>
-  <si>
-    <t>$108,400.50</t>
-  </si>
-  <si>
-    <t>$203,591.53</t>
+    <t>$106,137.83</t>
+  </si>
+  <si>
+    <t>$108,580.50</t>
+  </si>
+  <si>
+    <t>$214,718.33</t>
   </si>
   <si>
     <t>PRV. Y.T.D.</t>
   </si>
   <si>
-    <t>$282,481.94</t>
-  </si>
-  <si>
-    <t>$138,759.80</t>
-  </si>
-  <si>
-    <t>$421,241.74</t>
+    <t>$391,414.72</t>
+  </si>
+  <si>
+    <t>$187,219.80</t>
+  </si>
+  <si>
+    <t>$578,634.52</t>
   </si>
   <si>
     <t>INQUIRIES</t>
@@ -122,16 +122,16 @@
     <t>550 [550]</t>
   </si>
   <si>
-    <t>1Intv(front)</t>
+    <t>Intv(front)</t>
   </si>
   <si>
     <t>PREV</t>
   </si>
   <si>
-    <t>1301 [1301]</t>
-  </si>
-  <si>
-    <t>0Ren(back)</t>
+    <t>1941 [1941]</t>
+  </si>
+  <si>
+    <t>Ren(back)</t>
   </si>
   <si>
     <t>UNIT SALES TRACKING</t>
@@ -155,39 +155,9 @@
     <t>S : 0</t>
   </si>
   <si>
-    <t>T : 1</t>
-  </si>
-  <si>
-    <t>S : 1</t>
-  </si>
-  <si>
-    <t>T : 2</t>
-  </si>
-  <si>
-    <t>S : 2</t>
-  </si>
-  <si>
     <t>Units: 0.00</t>
   </si>
   <si>
-    <t>Units: 2.00</t>
-  </si>
-  <si>
-    <t>Units: 3.00</t>
-  </si>
-  <si>
-    <t>Units: 5.00</t>
-  </si>
-  <si>
-    <t>$1,000.00</t>
-  </si>
-  <si>
-    <t>$380.00</t>
-  </si>
-  <si>
-    <t>$1,380.00</t>
-  </si>
-  <si>
     <t>Adjust</t>
   </si>
   <si>
@@ -218,28 +188,28 @@
     <t>S : 7</t>
   </si>
   <si>
-    <t>T : 16</t>
-  </si>
-  <si>
-    <t>S : 11</t>
-  </si>
-  <si>
-    <t>T : 81</t>
-  </si>
-  <si>
-    <t>S : 72</t>
-  </si>
-  <si>
-    <t>Units: 166.00</t>
-  </si>
-  <si>
-    <t>Units: 55.00</t>
+    <t>T : 25</t>
+  </si>
+  <si>
+    <t>T : 90</t>
+  </si>
+  <si>
+    <t>S : 75</t>
+  </si>
+  <si>
+    <t>Units: 230.00</t>
+  </si>
+  <si>
+    <t>Units: 57.00</t>
   </si>
   <si>
     <t>Units: 160.00</t>
   </si>
   <si>
-    <t>Units: 547.00</t>
+    <t>Units: 182.00</t>
+  </si>
+  <si>
+    <t>Units: 629.00</t>
   </si>
   <si>
     <t>$20,000.50</t>
@@ -251,28 +221,28 @@
     <t>$26,109.50</t>
   </si>
   <si>
-    <t>$20,956.90</t>
-  </si>
-  <si>
-    <t>$78,187.60</t>
+    <t>$21,516.90</t>
+  </si>
+  <si>
+    <t>$78,747.60</t>
   </si>
   <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>$39,302.97</t>
-  </si>
-  <si>
-    <t>$49,008.50</t>
-  </si>
-  <si>
-    <t>$128,984.31</t>
-  </si>
-  <si>
-    <t>$205,924.50</t>
-  </si>
-  <si>
-    <t>$423,220.28</t>
+    <t>$51,367.97</t>
+  </si>
+  <si>
+    <t>$53,242.10</t>
+  </si>
+  <si>
+    <t>$185,457.51</t>
+  </si>
+  <si>
+    <t>$228,010.70</t>
+  </si>
+  <si>
+    <t>$518,078.28</t>
   </si>
   <si>
     <t>MISCELLANEOUS / FESTIVAL SALES TRACKING</t>
@@ -302,7 +272,7 @@
     <t>$127,237.00</t>
   </si>
   <si>
-    <t>$140,053.50</t>
+    <t>$188,253.50</t>
   </si>
 </sst>
 </file>
@@ -927,9 +897,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
@@ -947,19 +915,19 @@
         <v>33</v>
       </c>
       <c r="B15" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8">
         <v>33</v>
       </c>
       <c r="D15" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E15" s="8">
         <v>150</v>
       </c>
       <c r="F15" s="8">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>34</v>
@@ -976,19 +944,19 @@
         <v>36</v>
       </c>
       <c r="B16" s="8">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="C16" s="8">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D16" s="8">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E16" s="8">
-        <v>487</v>
+        <v>648</v>
       </c>
       <c r="F16" s="8">
-        <v>1313.5</v>
+        <v>1911</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>37</v>
@@ -1039,10 +1007,10 @@
         <v>45</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>44</v>
@@ -1051,38 +1019,38 @@
         <v>45</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" customHeight="1" ht="20">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -1093,7 +1061,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
@@ -1101,148 +1069,148 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="20">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="20">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" customHeight="1" ht="20">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" customHeight="1" ht="20">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" customHeight="1" ht="20">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K27" s="4"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="20">
@@ -1250,16 +1218,16 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1269,10 +1237,10 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1283,7 +1251,7 @@
     </row>
     <row r="32" spans="1:11" customHeight="1" ht="20">
       <c r="A32" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1309,31 +1277,31 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" customHeight="1" ht="20">
       <c r="A34" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>

--- a/admin/STUDIO_BUSINESS_REPORT.xlsx
+++ b/admin/STUDIO_BUSINESS_REPORT.xlsx
@@ -898,8 +898,12 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
       <c r="G14" s="8" t="s">
         <v>31</v>
       </c>
@@ -924,10 +928,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="8">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="F15" s="8">
-        <v>445</v>
+        <v>896</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>34</v>
@@ -953,10 +957,10 @@
         <v>155</v>
       </c>
       <c r="E16" s="8">
-        <v>648</v>
+        <v>761</v>
       </c>
       <c r="F16" s="8">
-        <v>1911</v>
+        <v>1843.5</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>37</v>
